--- a/Arrayer/software/前端/用户界面测试.xlsx
+++ b/Arrayer/software/前端/用户界面测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>测试名称</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>王寄竹</t>
+  </si>
+  <si>
+    <t>小行星</t>
   </si>
 </sst>
 </file>
@@ -81,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -111,7 +221,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,120 +241,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -255,187 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,24 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -489,6 +467,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,23 +513,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,148 +545,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:O6"/>
+  <dimension ref="C4:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="34.375" customWidth="1"/>
@@ -1109,6 +1105,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Arrayer/software/前端/用户界面测试.xlsx
+++ b/Arrayer/software/前端/用户界面测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>测试名称</t>
   </si>
@@ -76,7 +76,409 @@
     <t>王寄竹</t>
   </si>
   <si>
-    <t>小行星</t>
+    <t>√</t>
+  </si>
+  <si>
+    <t>状态栏显示</t>
+  </si>
+  <si>
+    <t>DP tips lock</t>
+  </si>
+  <si>
+    <t>手动松开DP重新安装锁紧</t>
+  </si>
+  <si>
+    <t>松开/锁紧正常显示</t>
+  </si>
+  <si>
+    <t>10次</t>
+  </si>
+  <si>
+    <t>Heating Film</t>
+  </si>
+  <si>
+    <t>手动直接更改膜的数量</t>
+  </si>
+  <si>
+    <t>显示正常</t>
+  </si>
+  <si>
+    <t>2次</t>
+  </si>
+  <si>
+    <t>dd H2O Normal</t>
+  </si>
+  <si>
+    <t>更改水箱中的水量进行swagger读取测试</t>
+  </si>
+  <si>
+    <t>测试水箱三个状态正常</t>
+  </si>
+  <si>
+    <t>3次</t>
+  </si>
+  <si>
+    <t>Waste H2O Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wash solution </t>
+  </si>
+  <si>
+    <t>Sealing Temperature</t>
+  </si>
+  <si>
+    <t>软件监控温度变化以及显示状态</t>
+  </si>
+  <si>
+    <t>测试热封温度显示是否正常</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>DJ1 Air pressure</t>
+  </si>
+  <si>
+    <t>更改/监控气压状态以及显示状态</t>
+  </si>
+  <si>
+    <t>测试DJ1气压显示是否正常</t>
+  </si>
+  <si>
+    <t>4次</t>
+  </si>
+  <si>
+    <t>DJ1 Container</t>
+  </si>
+  <si>
+    <t>DJ1储水罐进行充水和排水操作</t>
+  </si>
+  <si>
+    <t>测试DJ1储水罐显示是否正常</t>
+  </si>
+  <si>
+    <t>DJ4 Air pressure</t>
+  </si>
+  <si>
+    <t>测试DJ4气压显示是否正常</t>
+  </si>
+  <si>
+    <t>DJ4 container</t>
+  </si>
+  <si>
+    <t>DJ4储水罐进行充水和排水操作</t>
+  </si>
+  <si>
+    <t>测试DJ4储水罐显示是否正常</t>
+  </si>
+  <si>
+    <t>Air compression</t>
+  </si>
+  <si>
+    <t>用户方案测试</t>
+  </si>
+  <si>
+    <t>全方案测试</t>
+  </si>
+  <si>
+    <t>配制所有部件全部参与方案（包括清洗，全部是使用up，wash点亮）</t>
+  </si>
+  <si>
+    <t>保证软件在方案流程配制中没有BUG</t>
+  </si>
+  <si>
+    <t>配制所有部件全部参与方案（包括清洗，全部是使用down，wash不点）</t>
+  </si>
+  <si>
+    <t>单独方案测试</t>
+  </si>
+  <si>
+    <t>配制单独DP运行方案（扫码、清洗）</t>
+  </si>
+  <si>
+    <t>保证软件在DP单独使用时没有BUG</t>
+  </si>
+  <si>
+    <t>配制单独DP运行方案（扫码、不清洗）</t>
+  </si>
+  <si>
+    <t>配制单独DJ1运行方案（扫码、只加DJ1、清洗）</t>
+  </si>
+  <si>
+    <t>保证软件在DJ1单独使用时没有BUG</t>
+  </si>
+  <si>
+    <t>配制单独DJ1运行方案（扫码、只加DJ1、不清洗）</t>
+  </si>
+  <si>
+    <t>配制单独DJ4运行方案（扫码、只加DJ4、清洗）</t>
+  </si>
+  <si>
+    <t>保证软件在DJ4单独使用时没有BUG</t>
+  </si>
+  <si>
+    <t>配制单独DJ4运行方案（扫码、只加DJ4、不清洗）</t>
+  </si>
+  <si>
+    <t>配制单独热封运行方案</t>
+  </si>
+  <si>
+    <t>保证软件在热封单独使用时没有BUG</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>手动更改set-temperature数值</t>
+  </si>
+  <si>
+    <t>能够更改成功</t>
+  </si>
+  <si>
+    <t>手动更改膜的数量</t>
+  </si>
+  <si>
+    <t>DP tips</t>
+  </si>
+  <si>
+    <t>点击lock/unlock</t>
+  </si>
+  <si>
+    <t>能够点击成功</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>点击DJ1、DJ4、DP</t>
+  </si>
+  <si>
+    <t>能够进行正常清洗</t>
+  </si>
+  <si>
+    <t>调试运行界面</t>
+  </si>
+  <si>
+    <t>DJ1参数设置</t>
+  </si>
+  <si>
+    <t>重复次数设置</t>
+  </si>
+  <si>
+    <t>重复2次、1次</t>
+  </si>
+  <si>
+    <t>5个操作一起测试，确保能够完成对应参数设置</t>
+  </si>
+  <si>
+    <t>单次吸液喷PCR板数</t>
+  </si>
+  <si>
+    <t>设置参数为2、1</t>
+  </si>
+  <si>
+    <t>预喷次数</t>
+  </si>
+  <si>
+    <t>10、0</t>
+  </si>
+  <si>
+    <t>吸液使能</t>
+  </si>
+  <si>
+    <t>使能开、关</t>
+  </si>
+  <si>
+    <t>DJ1清洗</t>
+  </si>
+  <si>
+    <t>DJ4参数设置</t>
+  </si>
+  <si>
+    <t>DJ4清洗</t>
+  </si>
+  <si>
+    <t>样板移动</t>
+  </si>
+  <si>
+    <t>样品盘位置</t>
+  </si>
+  <si>
+    <t>运行到取板位</t>
+  </si>
+  <si>
+    <t>输入不同位置进行移动</t>
+  </si>
+  <si>
+    <t>能够准确移动到目标位</t>
+  </si>
+  <si>
+    <t>运行到扫码位</t>
+  </si>
+  <si>
+    <t>运行到吸液位</t>
+  </si>
+  <si>
+    <t>单独运行样品盘</t>
+  </si>
+  <si>
+    <t>输入固定位置运行</t>
+  </si>
+  <si>
+    <t>不漂移</t>
+  </si>
+  <si>
+    <t>10000次</t>
+  </si>
+  <si>
+    <t>PCR板托盘移动</t>
+  </si>
+  <si>
+    <t>运行到取放位</t>
+  </si>
+  <si>
+    <t>运行到DJ1位</t>
+  </si>
+  <si>
+    <t>运行到DJ4位</t>
+  </si>
+  <si>
+    <t>运行到DP位</t>
+  </si>
+  <si>
+    <t>运行到热封位</t>
+  </si>
+  <si>
+    <t>单独运行PCR板托盘移动</t>
+  </si>
+  <si>
+    <t>Head移动</t>
+  </si>
+  <si>
+    <t>DP 吸液准备位</t>
+  </si>
+  <si>
+    <t>点击运行</t>
+  </si>
+  <si>
+    <t>DP加样准备位（1号孔位）</t>
+  </si>
+  <si>
+    <t>DP清洗准备位</t>
+  </si>
+  <si>
+    <t>DJ4吸液准备位</t>
+  </si>
+  <si>
+    <t>DJ4清洗准备位</t>
+  </si>
+  <si>
+    <t>DJ1吸液准备位</t>
+  </si>
+  <si>
+    <t>DJ1清洗准备位</t>
+  </si>
+  <si>
+    <t>DJ1喷液准备位</t>
+  </si>
+  <si>
+    <t>单独运行Head移动</t>
+  </si>
+  <si>
+    <t>运行DJ1吸液</t>
+  </si>
+  <si>
+    <t>只进行DJ1吸空气柱、吸液、长喷</t>
+  </si>
+  <si>
+    <t>能够连贯执行且位置不偏移</t>
+  </si>
+  <si>
+    <t>运行DJ4吸液</t>
+  </si>
+  <si>
+    <t>只进行DJ4吸空气柱、吸液、长喷</t>
+  </si>
+  <si>
+    <t>运行DP吸液</t>
+  </si>
+  <si>
+    <t>只进行DP吸液、喷出</t>
+  </si>
+  <si>
+    <t>预喷DJ1</t>
+  </si>
+  <si>
+    <t>从DJ1吸液抬起的位置运行到预喷位置进行预喷动作并完成</t>
+  </si>
+  <si>
+    <t>预喷DJ4</t>
+  </si>
+  <si>
+    <t>从DJ4吸液抬起的位置运行到预喷位置进行预喷动作并完成</t>
+  </si>
+  <si>
+    <t>单独进行DJ1喷液动作</t>
+  </si>
+  <si>
+    <t>从预喷动作开始进行DJ1喷液完</t>
+  </si>
+  <si>
+    <t>单独进行DJ4喷液动作</t>
+  </si>
+  <si>
+    <t>从预喷动作开始进行DJ4喷液完</t>
+  </si>
+  <si>
+    <t>单独进行DP加样动作</t>
+  </si>
+  <si>
+    <t>从DP吸液完位置开始进行加样并完成后抬起</t>
+  </si>
+  <si>
+    <t>单独进行DJ1清洗动作</t>
+  </si>
+  <si>
+    <t>从DJ1喷液完的位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行DJ4清洗动作</t>
+  </si>
+  <si>
+    <t>从DJ4喷液完的位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行DP清洗动作</t>
+  </si>
+  <si>
+    <t>从DP加样后位置运行到清洗位置并完成清洗并抬起</t>
+  </si>
+  <si>
+    <t>单独进行松开锁紧</t>
+  </si>
+  <si>
+    <t>在正常能够吸液喷液验证后运行n次松开锁紧</t>
+  </si>
+  <si>
+    <t>能够连贯执行且不漏液</t>
+  </si>
+  <si>
+    <t>热封块下压测试</t>
+  </si>
+  <si>
+    <t>先正常封膜然后反应板托盘移动到热封位，温度设置为10℃，取掉膜，进行不断下压测试，n次后进行热封测试</t>
+  </si>
+  <si>
+    <t>能够连贯执行且n次后封膜正常不煮漏</t>
+  </si>
+  <si>
+    <t>横切刀出刀测试</t>
+  </si>
+  <si>
+    <t>正常热封后反应板托盘放置板子位于热封位进行不断出刀动作</t>
+  </si>
+  <si>
+    <t>能够连贯执行且位置不偏移不撞刀螺丝不松</t>
   </si>
 </sst>
 </file>
@@ -84,9 +486,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,16 +500,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,7 +553,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +590,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,21 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -205,38 +637,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +653,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,175 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,12 +847,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -486,26 +901,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,24 +936,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,138 +962,159 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1011,106 +1434,1042 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:O7"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94:D95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
-    <col min="5" max="6" width="18" customWidth="1"/>
-    <col min="8" max="8" width="54" customWidth="1"/>
-    <col min="9" max="11" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="61.95" customWidth="1"/>
+    <col min="3" max="3" width="30.65" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+    <col min="7" max="9" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15">
-      <c r="C4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
-      <c r="C5" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="12:12">
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+      <c r="C82" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/Arrayer/software/前端/用户界面测试.xlsx
+++ b/Arrayer/software/前端/用户界面测试.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17695\Documents\xinz\新建文件夹 (2)\Matrix\Arrayer\software\前端\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E3D19-2BAE-452A-AB72-FA3B057E2DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>测试名称</t>
   </si>
@@ -479,19 +485,17 @@
   </si>
   <si>
     <t>能够连贯执行且位置不偏移不撞刀螺丝不松</t>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,345 +504,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -846,260 +526,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1107,70 +539,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1428,30 +819,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94:D95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="61.95" customWidth="1"/>
-    <col min="3" max="3" width="30.65" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="62" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
-    <col min="7" max="9" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="7" max="9" width="20.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1524,12 +915,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1543,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1557,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1599,7 +990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1627,7 +1018,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1655,7 +1046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1669,17 +1060,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1693,7 +1084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1718,7 +1109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>61</v>
       </c>
@@ -1729,7 +1120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>62</v>
       </c>
@@ -1740,7 +1131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>64</v>
       </c>
@@ -1748,7 +1139,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1756,7 +1147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -1764,7 +1155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>68</v>
       </c>
@@ -1772,12 +1163,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1791,7 +1182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1819,7 +1210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1833,140 +1224,140 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>82</v>
       </c>
       <c r="B45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1980,7 +1371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -1994,7 +1385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -2008,7 +1399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -2022,12 +1413,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -2041,7 +1432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>99</v>
       </c>
@@ -2055,7 +1446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -2069,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -2083,7 +1474,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -2097,7 +1488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -2111,7 +1502,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -2125,12 +1516,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -2144,7 +1535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -2158,7 +1549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -2172,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -2186,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -2200,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -2214,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -2228,7 +1619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>121</v>
       </c>
@@ -2242,12 +1633,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -2261,7 +1652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -2275,7 +1666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -2289,7 +1680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -2303,7 +1694,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -2317,7 +1708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -2331,7 +1722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -2345,7 +1736,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -2359,7 +1750,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -2373,7 +1764,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -2387,7 +1778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>144</v>
       </c>
@@ -2401,7 +1792,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -2415,48 +1806,57 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="6" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="6"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D94:D95"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
     <mergeCell ref="B92:B93"/>
@@ -2465,12 +1865,8 @@
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="C92:C93"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D94:D95"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Arrayer/software/前端/用户界面测试.xlsx
+++ b/Arrayer/software/前端/用户界面测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17695\Documents\xinz\新建文件夹 (2)\Matrix\Arrayer\software\前端\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17695\Documents\xinz\Matrix\Matrix\Arrayer\software\前端\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E3D19-2BAE-452A-AB72-FA3B057E2DAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB1021-9830-46A8-8FDE-8A66DDEA130F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="168">
   <si>
     <t>测试名称</t>
   </si>
@@ -118,9 +118,6 @@
     <t>更改水箱中的水量进行swagger读取测试</t>
   </si>
   <si>
-    <t>测试水箱三个状态正常</t>
-  </si>
-  <si>
     <t>3次</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>输入固定位置运行</t>
   </si>
   <si>
-    <t>不漂移</t>
-  </si>
-  <si>
     <t>10000次</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
     <t>单独进行DP加样动作</t>
   </si>
   <si>
-    <t>从DP吸液完位置开始进行加样并完成后抬起</t>
-  </si>
-  <si>
     <t>单独进行DJ1清洗动作</t>
   </si>
   <si>
@@ -487,7 +478,67 @@
     <t>能够连贯执行且位置不偏移不撞刀螺丝不松</t>
   </si>
   <si>
-    <t>sss</t>
+    <t>竖切刀出刀测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常热封后进行不断竖切刀动作，n次后进行热封预切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热封电机测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常热封后进行添加负载空转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n次后能够正常热封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n次后能够正常预切不卡刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试水箱三个状态正常且不影响其他水箱状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不漂移且扫码正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从DP吸液完位置开始进行加样并完成后抬起（4种加样方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动点击开机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够正常开机初始化且不报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +557,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -530,16 +589,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -825,17 +885,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="62" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="54" customWidth="1"/>
     <col min="7" max="9" width="20.88671875" customWidth="1"/>
@@ -955,130 +1015,130 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -1086,10 +1146,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -1097,13 +1157,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
       </c>
       <c r="D22" t="s">
         <v>29</v>
@@ -1111,10 +1171,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1122,10 +1182,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1133,50 +1193,62 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="C26" t="s">
-        <v>66</v>
+      <c r="D26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
-        <v>69</v>
+      <c r="D28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>71</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
@@ -1187,10 +1259,10 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
@@ -1198,13 +1270,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
       </c>
       <c r="D33" t="s">
         <v>29</v>
@@ -1212,13 +1284,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>78</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
       </c>
       <c r="D34" t="s">
         <v>29</v>
@@ -1226,23 +1298,23 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>29</v>
@@ -1250,58 +1322,58 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>29</v>
@@ -1309,63 +1381,63 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
         <v>96</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>29</v>
@@ -1373,13 +1445,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
         <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
       </c>
       <c r="D54" t="s">
         <v>29</v>
@@ -1387,13 +1459,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
         <v>97</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
       </c>
       <c r="D55" t="s">
         <v>29</v>
@@ -1401,32 +1473,32 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
         <v>101</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
         <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
         <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
       </c>
       <c r="D60" t="s">
         <v>29</v>
@@ -1434,13 +1506,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
         <v>97</v>
-      </c>
-      <c r="C61" t="s">
-        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>29</v>
@@ -1448,13 +1520,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
         <v>97</v>
-      </c>
-      <c r="C62" t="s">
-        <v>98</v>
       </c>
       <c r="D62" t="s">
         <v>29</v>
@@ -1462,13 +1534,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" t="s">
         <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -1476,13 +1548,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
         <v>97</v>
-      </c>
-      <c r="C64" t="s">
-        <v>98</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
@@ -1490,13 +1562,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
         <v>97</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -1504,32 +1576,32 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D67" t="s">
         <v>102</v>
-      </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
         <v>29</v>
@@ -1537,13 +1609,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
         <v>29</v>
@@ -1551,13 +1623,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
         <v>29</v>
@@ -1565,13 +1637,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
@@ -1579,13 +1651,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>29</v>
@@ -1593,13 +1665,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75" t="s">
         <v>29</v>
@@ -1607,13 +1679,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>29</v>
@@ -1621,13 +1693,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
         <v>29</v>
@@ -1635,220 +1707,265 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
         <v>123</v>
       </c>
-      <c r="B80" t="s">
-        <v>124</v>
-      </c>
-      <c r="C80" t="s">
-        <v>125</v>
-      </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>138</v>
-      </c>
-      <c r="B87" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>104</v>
+      <c r="D92" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="C97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
